--- a/data_in/table.correspondences/Countries_1.to.Countries_2.WD1.xlsx
+++ b/data_in/table.correspondences/Countries_1.to.Countries_2.WD1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10520"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paul/Documents/Professionnel/CCS_Project/data/correspondences/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paul/Documents/Professionnel/Github/EmissionsIndicators/data_in/table.correspondences/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E8C430-C123-1A48-9AD8-78D7D166A8FC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C63942-68F8-044F-8EB6-3DA6CFD3389D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Countries" sheetId="3" r:id="rId1"/>
@@ -24,7 +24,11 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -917,10 +921,10 @@
   <dimension ref="A1:GU56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="73" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="V2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A16" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4110,7 +4114,7 @@
         <v>0</v>
       </c>
       <c r="AM11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN11" s="2">
         <v>0</v>
@@ -4298,7 +4302,7 @@
       <c r="GS11" s="2"/>
       <c r="GU11" s="1">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:203" x14ac:dyDescent="0.2">
